--- a/Sparkle Project/Summary.xlsx
+++ b/Sparkle Project/Summary.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Prokopius\Documents\FALCON HD\GitHub\Reproducible-Science\Sparkle Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ED1023-C3F4-48C6-82EF-8F62E17D7377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAAB683-2E9F-4B56-AB9F-940C6E0CE996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{9EB31290-BA9C-42D0-A1EE-93E261E87E94}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{9EB31290-BA9C-42D0-A1EE-93E261E87E94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Significant relationships" sheetId="2" r:id="rId2"/>
+    <sheet name="Sig relationships" sheetId="4" r:id="rId1"/>
+    <sheet name="Error Regression" sheetId="3" r:id="rId2"/>
+    <sheet name="Fstats pvalues" sheetId="1" r:id="rId3"/>
+    <sheet name="Significant relationships" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="42">
   <si>
     <t>Model Type</t>
   </si>
@@ -128,6 +130,36 @@
   </si>
   <si>
     <t>1, 3</t>
+  </si>
+  <si>
+    <t>Standard Error of Regression</t>
+  </si>
+  <si>
+    <t>Hydropsychidae-Nonlinear</t>
+  </si>
+  <si>
+    <t>T-statistic</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Hydropsychidae-Linear</t>
+  </si>
+  <si>
+    <t>Trichoptera-Nonlinear</t>
+  </si>
+  <si>
+    <t>Phryganeidae-Nonlinear</t>
+  </si>
+  <si>
+    <t>Polycentropodidae-Nonlinear</t>
+  </si>
+  <si>
+    <t>Rhyacophilidae-Nonlinear</t>
+  </si>
+  <si>
+    <t>Bracgycentridae-Noninear</t>
   </si>
 </sst>
 </file>
@@ -177,13 +209,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,11 +532,1399 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A05EB-14BD-4F22-AD93-1AB971C911F3}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.2089999999999999E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>28.437000000000001</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.3590000000000002E-6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18.68</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.4250000000000003E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>22.82</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.9249999999999998E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>17.085999999999999</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.4059999999999999E-5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>26.709</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.1920000000000001E-6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>19.134</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.7080000000000002E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>21.23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9.136E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>15.977</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5.9190000000000001E-5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7.0069999999999998E-5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6.6489999999999994E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.4830000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.5199999999999997E-3</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9.128E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.6619999999999999E-5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13.02</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5.3399999999999997E-6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.1820000000000004</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.4059999999999997</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.198E-4</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.091E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6.3040000000000006E-5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.9159999999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.168E-5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.8809999999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.9419999999999997E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.2090000000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395593B7-2C07-4B2A-8425-EB0A324596D2}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.7609999999999999E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>21.88</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.2630000000000001E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19.698</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.0299999999999999E-5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>19.802</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.6690000000000002E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>19.161000000000001</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.7330000000000007E-5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.8820000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.0710000000000002E-5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.0219999999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5.062E-5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.218</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.1661</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.2589999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.62E-3</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.2089999999999999E-5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>28.437000000000001</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.3590000000000002E-6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>18.68</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.4250000000000003E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>22.82</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.9249999999999998E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>17.085999999999999</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.4059999999999999E-5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>26.709</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.1920000000000001E-6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>19.134</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.7080000000000002E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>21.23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9.136E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>15.977</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5.2330000000000002E-5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8.89</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.8490000000000001E-5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.0370000000000001E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>86.55</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.6980000000000001E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.4989999999999997</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5.9190000000000001E-5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7.0069999999999998E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6.6489999999999994E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.4830000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4.5199999999999997E-3</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9.128E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2.6619999999999999E-5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>13.02</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5.3399999999999997E-6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.1820000000000004</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5.4059999999999997</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.198E-4</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.091E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="4">
+        <v>6.3040000000000006E-5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.9159999999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.168E-5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.8809999999999998</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.9419999999999997E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.2090000000000001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2.9470000000000001E-5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10.662000000000001</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7.2330000000000005E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9.9369999999999994</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.3139999999999998E-5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10.614000000000001</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8.0240000000000006E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>9.4369999999999994</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.515E-4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.56289999999999996</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.325E-4</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.4254</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2.0819999999999999</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC760289-ACC9-480F-89AC-D47A11D5C391}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:G27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,12 +2653,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351B3ABF-0CA0-4D5A-8CE2-902A803FBD65}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:G23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
